--- a/DateBase/orders/Dang Nguyen_2024-12-17.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-17.xlsx
@@ -989,6 +989,9 @@
       <c r="G2" t="str">
         <v>015206128333012851010651081211103610851012103011121015610568251065411120571555505208514128536114</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
